--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 21 - Mash Filter/99RP273_S21_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 21 - Mash Filter/99RP273_S21_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 21 - Mash Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF48E2-E4E8-8648-9DEE-54F67D2CE831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CBFBA3-A5F4-8E47-A37F-9EE62D965694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="11" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="25560" windowHeight="21140" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="343">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -1106,12 +1106,123 @@
   <si>
     <t>9RP257.2310:1665VCM</t>
   </si>
+  <si>
+    <t>36: Counter volume to HV</t>
+  </si>
+  <si>
+    <t>37: Counter volume to WWT</t>
+  </si>
+  <si>
+    <t>38: Counter volume to drain</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>026: Gravity mean to Holding Vessel</t>
+  </si>
+  <si>
+    <t>027: Gravity mean to WWT</t>
+  </si>
+  <si>
+    <t>028: Gravity mean to Drain</t>
+  </si>
+  <si>
+    <t>071: Man Input: Plato main wort</t>
+  </si>
+  <si>
+    <t>072: MES: Mean precompression membrane pressure</t>
+  </si>
+  <si>
+    <t>077: MES: Mean membrane pressure 1st Compression</t>
+  </si>
+  <si>
+    <t>078: MES: Mean membrane pressure 2nd Compression</t>
+  </si>
+  <si>
+    <t>079: Mean inlet T°C in 2nd Sparging</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>050: MES: Volume Compression</t>
+  </si>
+  <si>
+    <t>055: MES: Garadient to HV</t>
+  </si>
+  <si>
+    <t>056: MES: Total extract drained at filter</t>
+  </si>
+  <si>
+    <t>99RP273.2831:924VCM</t>
+  </si>
+  <si>
+    <t>99RP273.2832:605RUNT</t>
+  </si>
+  <si>
+    <t>213 - Pre Compression</t>
+  </si>
+  <si>
+    <t>2nd Sparging</t>
+  </si>
+  <si>
+    <t>99RP273.2836:1243VCM</t>
+  </si>
+  <si>
+    <t>1 st Compression</t>
+  </si>
+  <si>
+    <t>99RP273.2841:605RUNT</t>
+  </si>
+  <si>
+    <t>220 - Spent Grain discharge</t>
+  </si>
+  <si>
+    <t>029: Turbidity Avg in Filtration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1175,8 +1286,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,6 +1346,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,6 +1590,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,6 +1631,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6738,14 +6876,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -  Check time LE05.00.21 not covered | Bergamo - 26: Counter volume to HV</v>
+        <v>-- Function: Massafra -  36: Counter volume to HV | Bergamo - 26: Counter volume to HV</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v>Check time LE05.00.21 not covered</v>
+        <v>36: Counter volume to HV</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>289</v>
@@ -6795,7 +6933,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742653SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -6805,20 +6943,20 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$4="NULL","",IF(ISBLANK('01 Function Comparison'!$L$4),"",'01 Function Comparison'!$L$4))</f>
-        <v>99RP273.1073742653SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Function: Massafra -  Check time LE05.00.22 not covered | Bergamo - 27: Counter volume to WWT</v>
+        <v>-- Function: Massafra -  37: Counter volume to WWT | Bergamo - 27: Counter volume to WWT</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v>Check time LE05.00.22 not covered</v>
+        <v>37: Counter volume to WWT</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>289</v>
@@ -6868,7 +7006,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742654SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -6878,20 +7016,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$5="NULL","",IF(ISBLANK('01 Function Comparison'!$L$5),"",'01 Function Comparison'!$L$5))</f>
-        <v>99RP273.1073742654SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Function: Massafra -  Flushing time MPDS5 measuring | Bergamo - 28: Counter volume to drain</v>
+        <v>-- Function: Massafra -  38: Counter volume to drain | Bergamo - 28: Counter volume to drain</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$6="NULL","",IF(ISBLANK('01 Function Comparison'!$K$6),"",'01 Function Comparison'!$K$6))</f>
-        <v>Flushing time MPDS5 measuring</v>
+        <v>38: Counter volume to drain</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>289</v>
@@ -6941,7 +7079,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742711SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -6951,20 +7089,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$6="NULL","",IF(ISBLANK('01 Function Comparison'!$L$6),"",'01 Function Comparison'!$L$6))</f>
-        <v>99RP273.1073742711SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Function: Massafra -   | Bergamo - 42: Dosing time trub</v>
+        <v>-- Function: Massafra -  42: Dosing time trub | Bergamo - 42: Dosing time trub</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$7="NULL","",IF(ISBLANK('01 Function Comparison'!$K$7),"",'01 Function Comparison'!$K$7))</f>
-        <v/>
+        <v>42: Dosing time trub</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>289</v>
@@ -7030,14 +7168,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay BT full | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B27" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$8="NULL","",IF(ISBLANK('01 Function Comparison'!$K$8),"",'01 Function Comparison'!$K$8))</f>
-        <v>Delay BT full</v>
+        <v/>
       </c>
       <c r="D27" s="25" t="s">
         <v>289</v>
@@ -7087,7 +7225,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742100SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -7097,20 +7235,20 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$8="NULL","",IF(ISBLANK('01 Function Comparison'!$L$8),"",'01 Function Comparison'!$L$8))</f>
-        <v>99RP273.1073742100SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay BT high level | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B32" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$9="NULL","",IF(ISBLANK('01 Function Comparison'!$K$9),"",'01 Function Comparison'!$K$9))</f>
-        <v>Delay BT high level</v>
+        <v/>
       </c>
       <c r="D32" s="25" t="s">
         <v>289</v>
@@ -7160,7 +7298,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>CONCATENATE(D36,"N'",F36,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742101SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="30"/>
@@ -7170,20 +7308,20 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$9="NULL","",IF(ISBLANK('01 Function Comparison'!$L$9),"",'01 Function Comparison'!$L$9))</f>
-        <v>99RP273.1073742101SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay BT not full | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B37" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$10="NULL","",IF(ISBLANK('01 Function Comparison'!$K$10),"",'01 Function Comparison'!$K$10))</f>
-        <v>Delay BT not full</v>
+        <v/>
       </c>
       <c r="D37" s="25" t="s">
         <v>289</v>
@@ -7233,7 +7371,7 @@
     <row r="41" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>CONCATENATE(D41,"N'",F41,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742102SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
@@ -7243,20 +7381,20 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$10="NULL","",IF(ISBLANK('01 Function Comparison'!$L$10),"",'01 Function Comparison'!$L$10))</f>
-        <v>99RP273.1073742102SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay BT low level | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B42" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$11="NULL","",IF(ISBLANK('01 Function Comparison'!$K$11),"",'01 Function Comparison'!$K$11))</f>
-        <v>Delay BT low level</v>
+        <v/>
       </c>
       <c r="D42" s="25" t="s">
         <v>289</v>
@@ -7306,7 +7444,7 @@
     <row r="46" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="str">
         <f>CONCATENATE(D46,"N'",F46,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742103SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="30"/>
@@ -7316,20 +7454,20 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$11="NULL","",IF(ISBLANK('01 Function Comparison'!$L$11),"",'01 Function Comparison'!$L$11))</f>
-        <v>99RP273.1073742103SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay Filter press too high | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B47" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$12="NULL","",IF(ISBLANK('01 Function Comparison'!$K$12),"",'01 Function Comparison'!$K$12))</f>
-        <v>Delay Filter press too high</v>
+        <v/>
       </c>
       <c r="D47" s="25" t="s">
         <v>289</v>
@@ -7379,7 +7517,7 @@
     <row r="51" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="str">
         <f>CONCATENATE(D51,"N'",F51,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742104SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="30"/>
@@ -7389,20 +7527,20 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$12="NULL","",IF(ISBLANK('01 Function Comparison'!$L$12),"",'01 Function Comparison'!$L$12))</f>
-        <v>99RP273.1073742104SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay Filter press ok | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B52" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$13="NULL","",IF(ISBLANK('01 Function Comparison'!$K$13),"",'01 Function Comparison'!$K$13))</f>
-        <v>Delay Filter press ok</v>
+        <v/>
       </c>
       <c r="D52" s="25" t="s">
         <v>289</v>
@@ -7452,7 +7590,7 @@
     <row r="56" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="str">
         <f>CONCATENATE(D56,"N'",F56,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742105SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="30"/>
@@ -7462,20 +7600,20 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$13="NULL","",IF(ISBLANK('01 Function Comparison'!$L$13),"",'01 Function Comparison'!$L$13))</f>
-        <v>99RP273.1073742105SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time PID | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B57" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$14="NULL","",IF(ISBLANK('01 Function Comparison'!$K$14),"",'01 Function Comparison'!$K$14))</f>
-        <v>Delay time PID</v>
+        <v/>
       </c>
       <c r="D57" s="25" t="s">
         <v>289</v>
@@ -7525,7 +7663,7 @@
     <row r="61" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="str">
         <f>CONCATENATE(D61,"N'",F61,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742106SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="30"/>
@@ -7535,20 +7673,20 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$14="NULL","",IF(ISBLANK('01 Function Comparison'!$L$14),"",'01 Function Comparison'!$L$14))</f>
-        <v>99RP273.1073742106SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Aeration mon time FV05.00.38 | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B62" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$15="NULL","",IF(ISBLANK('01 Function Comparison'!$K$15),"",'01 Function Comparison'!$K$15))</f>
-        <v>Aeration mon time FV05.00.38</v>
+        <v/>
       </c>
       <c r="D62" s="25" t="s">
         <v>289</v>
@@ -7598,7 +7736,7 @@
     <row r="66" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="str">
         <f>CONCATENATE(D66,"N'",F66,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742107SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="30"/>
@@ -7608,20 +7746,20 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$15="NULL","",IF(ISBLANK('01 Function Comparison'!$L$15),"",'01 Function Comparison'!$L$15))</f>
-        <v>99RP273.1073742107SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Aeration mon time V05.00.24 | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B67" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$16="NULL","",IF(ISBLANK('01 Function Comparison'!$K$16),"",'01 Function Comparison'!$K$16))</f>
-        <v>Aeration mon time V05.00.24</v>
+        <v/>
       </c>
       <c r="D67" s="25" t="s">
         <v>289</v>
@@ -7671,7 +7809,7 @@
     <row r="71" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="str">
         <f>CONCATENATE(D71,"N'",F71,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742108SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="30"/>
@@ -7681,20 +7819,20 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$16="NULL","",IF(ISBLANK('01 Function Comparison'!$L$16),"",'01 Function Comparison'!$L$16))</f>
-        <v>99RP273.1073742108SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="str">
         <f>CONCATENATE(B72,C72,D72,E72)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Air emptying volume | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B72" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$17="NULL","",IF(ISBLANK('01 Function Comparison'!$K$17),"",'01 Function Comparison'!$K$17))</f>
-        <v>Air emptying volume</v>
+        <v/>
       </c>
       <c r="D72" s="25" t="s">
         <v>289</v>
@@ -7744,7 +7882,7 @@
     <row r="76" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="str">
         <f>CONCATENATE(D76,"N'",F76,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742241SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="30"/>
@@ -7754,20 +7892,20 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$17="NULL","",IF(ISBLANK('01 Function Comparison'!$L$17),"",'01 Function Comparison'!$L$17))</f>
-        <v>99RP273.1073742241SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="str">
         <f>CONCATENATE(B77,C77,D77,E77)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Max Wort volume | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B77" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C77" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$18="NULL","",IF(ISBLANK('01 Function Comparison'!$K$18),"",'01 Function Comparison'!$K$18))</f>
-        <v>Max Wort volume</v>
+        <v/>
       </c>
       <c r="D77" s="25" t="s">
         <v>289</v>
@@ -7817,7 +7955,7 @@
     <row r="81" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="str">
         <f>CONCATENATE(D81,"N'",F81,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742242SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="30"/>
@@ -7827,20 +7965,20 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$18="NULL","",IF(ISBLANK('01 Function Comparison'!$L$18),"",'01 Function Comparison'!$L$18))</f>
-        <v>99RP273.1073742242SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="str">
         <f>CONCATENATE(B82,C82,D82,E82)</f>
-        <v xml:space="preserve">-- Function: Massafra -  BT level | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B82" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C82" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$19="NULL","",IF(ISBLANK('01 Function Comparison'!$K$19),"",'01 Function Comparison'!$K$19))</f>
-        <v>BT level</v>
+        <v/>
       </c>
       <c r="D82" s="25" t="s">
         <v>289</v>
@@ -7890,7 +8028,7 @@
     <row r="86" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="str">
         <f>CONCATENATE(D86,"N'",F86,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742243SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="30"/>
@@ -7900,20 +8038,20 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$19="NULL","",IF(ISBLANK('01 Function Comparison'!$L$19),"",'01 Function Comparison'!$L$19))</f>
-        <v>99RP273.1073742243SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="str">
         <f>CONCATENATE(B87,C87,D87,E87)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Spargint water temp | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B87" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C87" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$20="NULL","",IF(ISBLANK('01 Function Comparison'!$K$20),"",'01 Function Comparison'!$K$20))</f>
-        <v>Spargint water temp</v>
+        <v/>
       </c>
       <c r="D87" s="25" t="s">
         <v>289</v>
@@ -7963,7 +8101,7 @@
     <row r="91" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="str">
         <f>CONCATENATE(D91,"N'",F91,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742244SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="30"/>
@@ -7973,20 +8111,20 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$20="NULL","",IF(ISBLANK('01 Function Comparison'!$L$20),"",'01 Function Comparison'!$L$20))</f>
-        <v>99RP273.1073742244SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="str">
         <f>CONCATENATE(B92,C92,D92,E92)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time PID Wort pump | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B92" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C92" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$21="NULL","",IF(ISBLANK('01 Function Comparison'!$K$21),"",'01 Function Comparison'!$K$21))</f>
-        <v>Delay time PID Wort pump</v>
+        <v/>
       </c>
       <c r="D92" s="25" t="s">
         <v>289</v>
@@ -8036,7 +8174,7 @@
     <row r="96" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="str">
         <f>CONCATENATE(D96,"N'",F96,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742255SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="30"/>
@@ -8046,20 +8184,20 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$21="NULL","",IF(ISBLANK('01 Function Comparison'!$L$21),"",'01 Function Comparison'!$L$21))</f>
-        <v>99RP273.1073742255SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="str">
         <f>CONCATENATE(B97,C97,D97,E97)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Air emptying delay time | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B97" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$22="NULL","",IF(ISBLANK('01 Function Comparison'!$K$22),"",'01 Function Comparison'!$K$22))</f>
-        <v>Air emptying delay time</v>
+        <v/>
       </c>
       <c r="D97" s="25" t="s">
         <v>289</v>
@@ -8109,7 +8247,7 @@
     <row r="101" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="str">
         <f>CONCATENATE(D101,"N'",F101,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742259SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="30"/>
@@ -8119,20 +8257,20 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$22="NULL","",IF(ISBLANK('01 Function Comparison'!$L$22),"",'01 Function Comparison'!$L$22))</f>
-        <v>99RP273.1073742259SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="str">
         <f>CONCATENATE(B102,C102,D102,E102)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay Min press open Filter | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B102" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C102" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$23="NULL","",IF(ISBLANK('01 Function Comparison'!$K$23),"",'01 Function Comparison'!$K$23))</f>
-        <v>Delay Min press open Filter</v>
+        <v/>
       </c>
       <c r="D102" s="25" t="s">
         <v>289</v>
@@ -8182,7 +8320,7 @@
     <row r="106" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="str">
         <f>CONCATENATE(D106,"N'",F106,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742260SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="30"/>
@@ -8192,20 +8330,20 @@
       <c r="E106" s="36"/>
       <c r="F106" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$23="NULL","",IF(ISBLANK('01 Function Comparison'!$L$23),"",'01 Function Comparison'!$L$23))</f>
-        <v>99RP273.1073742260SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="str">
         <f>CONCATENATE(B107,C107,D107,E107)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time Hydraulic pressure low | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B107" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C107" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$24="NULL","",IF(ISBLANK('01 Function Comparison'!$K$24),"",'01 Function Comparison'!$K$24))</f>
-        <v>Delay time Hydraulic pressure low</v>
+        <v/>
       </c>
       <c r="D107" s="25" t="s">
         <v>289</v>
@@ -8255,7 +8393,7 @@
     <row r="111" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="41" t="str">
         <f>CONCATENATE(D111,"N'",F111,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742277SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="30"/>
@@ -8265,20 +8403,20 @@
       <c r="E111" s="36"/>
       <c r="F111" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$24="NULL","",IF(ISBLANK('01 Function Comparison'!$L$24),"",'01 Function Comparison'!$L$24))</f>
-        <v>99RP273.1073742277SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="38" t="str">
         <f>CONCATENATE(B112,C112,D112,E112)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time PID Flow/Pressure | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B112" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C112" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$25="NULL","",IF(ISBLANK('01 Function Comparison'!$K$25),"",'01 Function Comparison'!$K$25))</f>
-        <v>Delay time PID Flow/Pressure</v>
+        <v/>
       </c>
       <c r="D112" s="25" t="s">
         <v>289</v>
@@ -8328,7 +8466,7 @@
     <row r="116" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="str">
         <f>CONCATENATE(D116,"N'",F116,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742385SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="30"/>
@@ -8338,20 +8476,20 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$25="NULL","",IF(ISBLANK('01 Function Comparison'!$L$25),"",'01 Function Comparison'!$L$25))</f>
-        <v>99RP273.1073742385SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="38" t="str">
         <f>CONCATENATE(B117,C117,D117,E117)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Sampling time | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B117" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C117" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$26="NULL","",IF(ISBLANK('01 Function Comparison'!$K$26),"",'01 Function Comparison'!$K$26))</f>
-        <v>Sampling time</v>
+        <v/>
       </c>
       <c r="D117" s="25" t="s">
         <v>289</v>
@@ -8401,7 +8539,7 @@
     <row r="121" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="str">
         <f>CONCATENATE(D121,"N'",F121,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742553SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="30"/>
@@ -8411,20 +8549,20 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$26="NULL","",IF(ISBLANK('01 Function Comparison'!$L$26),"",'01 Function Comparison'!$L$26))</f>
-        <v>99RP273.1073742553SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="38" t="str">
         <f>CONCATENATE(B122,C122,D122,E122)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay Time for Pressure control | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B122" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C122" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$27="NULL","",IF(ISBLANK('01 Function Comparison'!$K$27),"",'01 Function Comparison'!$K$27))</f>
-        <v>Delay Time for Pressure control</v>
+        <v/>
       </c>
       <c r="D122" s="25" t="s">
         <v>289</v>
@@ -8474,7 +8612,7 @@
     <row r="126" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="str">
         <f>CONCATENATE(D126,"N'",F126,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742569SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="30"/>
@@ -8484,20 +8622,20 @@
       <c r="E126" s="36"/>
       <c r="F126" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$27="NULL","",IF(ISBLANK('01 Function Comparison'!$L$27),"",'01 Function Comparison'!$L$27))</f>
-        <v>99RP273.1073742569SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="str">
         <f>CONCATENATE(B127,C127,D127,E127)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay no flow wort pump | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B127" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C127" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$28="NULL","",IF(ISBLANK('01 Function Comparison'!$K$28),"",'01 Function Comparison'!$K$28))</f>
-        <v>Delay no flow wort pump</v>
+        <v/>
       </c>
       <c r="D127" s="25" t="s">
         <v>289</v>
@@ -8547,7 +8685,7 @@
     <row r="131" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="41" t="str">
         <f>CONCATENATE(D131,"N'",F131,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742651SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="30"/>
@@ -8557,20 +8695,20 @@
       <c r="E131" s="36"/>
       <c r="F131" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$28="NULL","",IF(ISBLANK('01 Function Comparison'!$L$28),"",'01 Function Comparison'!$L$28))</f>
-        <v>99RP273.1073742651SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="38" t="str">
         <f>CONCATENATE(B132,C132,D132,E132)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Check time dry protectino WP | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B132" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C132" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$29="NULL","",IF(ISBLANK('01 Function Comparison'!$K$29),"",'01 Function Comparison'!$K$29))</f>
-        <v>Check time dry protectino WP</v>
+        <v/>
       </c>
       <c r="D132" s="25" t="s">
         <v>289</v>
@@ -8620,7 +8758,7 @@
     <row r="136" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="str">
         <f>CONCATENATE(D136,"N'",F136,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742652SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="30"/>
@@ -8630,20 +8768,20 @@
       <c r="E136" s="36"/>
       <c r="F136" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$29="NULL","",IF(ISBLANK('01 Function Comparison'!$L$29),"",'01 Function Comparison'!$L$29))</f>
-        <v>99RP273.1073742652SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="str">
         <f>CONCATENATE(B137,C137,D137,E137)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Check time Sealing flow MP | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B137" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C137" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$30="NULL","",IF(ISBLANK('01 Function Comparison'!$K$30),"",'01 Function Comparison'!$K$30))</f>
-        <v>Check time Sealing flow MP</v>
+        <v/>
       </c>
       <c r="D137" s="25" t="s">
         <v>289</v>
@@ -8693,7 +8831,7 @@
     <row r="141" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="str">
         <f>CONCATENATE(D141,"N'",F141,"'")</f>
-        <v>WHERE _Name = N'99RP273.1073742379SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="30"/>
@@ -8703,7 +8841,7 @@
       <c r="E141" s="36"/>
       <c r="F141" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$30="NULL","",IF(ISBLANK('01 Function Comparison'!$L$30),"",'01 Function Comparison'!$L$30))</f>
-        <v>99RP273.1073742379SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -9093,7 +9231,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -9269,14 +9407,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Filtration ( Wort amount total )</v>
+        <v>-- Operation: Massafra - 212 - Filtration ( Wort amount total ) | Bergamo - Filtration ( Wort amount total )</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$5),"",CONCATENATE('01 Operation Comparison'!$N$5," ( ",'01 Operation Comparison'!$O$5," )")))</f>
-        <v/>
+        <v>212 - Filtration ( Wort amount total )</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>289</v>
@@ -9326,7 +9464,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP273.2831:924VCM'</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -9336,20 +9474,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$5),"",'01 Operation Comparison'!$P$5))</f>
-        <v/>
+        <v>99RP273.2831:924VCM</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Operation: Massafra - 214 - Pre Sparging ( RunTime ) | Bergamo - Pre Compression ( RunTime )</v>
+        <v>-- Operation: Massafra - 213 - Pre Compression ( RunTime ) | Bergamo - Pre Compression ( RunTime )</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$6),"",CONCATENATE('01 Operation Comparison'!$N$6," ( ",'01 Operation Comparison'!$O$6," )")))</f>
-        <v>214 - Pre Sparging ( RunTime )</v>
+        <v>213 - Pre Compression ( RunTime )</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>289</v>
@@ -9399,7 +9537,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP273.2833:605RUNT'</v>
+        <v>WHERE _Name = N'99RP273.2832:605RUNT'</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -9409,20 +9547,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$6),"",'01 Operation Comparison'!$P$6))</f>
-        <v>99RP273.2833:605RUNT</v>
+        <v>99RP273.2832:605RUNT</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Operation: Massafra - 2nd Compression ( Wort amount partial ) | Bergamo - Last Sparging 4 ( Gravity )</v>
+        <v>-- Operation: Massafra - 2nd Sparging ( Gravity ) | Bergamo - Last Sparging 4 ( Gravity )</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$7),"",CONCATENATE('01 Operation Comparison'!$N$7," ( ",'01 Operation Comparison'!$O$7," )")))</f>
-        <v>2nd Compression ( Wort amount partial )</v>
+        <v>2nd Sparging ( Gravity )</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>289</v>
@@ -9472,7 +9610,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP273.2837:1243VCM'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -9482,20 +9620,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$7),"",'01 Operation Comparison'!$P$7))</f>
-        <v>99RP273.2837:1243VCM</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Operation: Massafra -  | Bergamo - 1st Compression ( Wort amount partial )</v>
+        <v>-- Operation: Massafra - 1 st Compression ( Wort amount partial ) | Bergamo - 1st Compression ( Wort amount partial )</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$8="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$8),"",CONCATENATE('01 Operation Comparison'!$N$8," ( ",'01 Operation Comparison'!$O$8," )")))</f>
-        <v/>
+        <v>1 st Compression ( Wort amount partial )</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>289</v>
@@ -9545,7 +9683,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP273.2836:1243VCM'</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -9555,20 +9693,20 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$8="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$8),"",'01 Operation Comparison'!$P$8))</f>
-        <v/>
+        <v>99RP273.2836:1243VCM</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Operation: Massafra -  | Bergamo - 2nd Compression ( Wort amount partial )</v>
+        <v>-- Operation: Massafra - 2nd Compression ( Wort amount partial ) | Bergamo - 2nd Compression ( Wort amount partial )</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$9="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$9),"",CONCATENATE('01 Operation Comparison'!$N$9," ( ",'01 Operation Comparison'!$O$9," )")))</f>
-        <v/>
+        <v>2nd Compression ( Wort amount partial )</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>289</v>
@@ -9618,7 +9756,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>CONCATENATE(D36,"N'",F36,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP273.2837:1243VCM'</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="30"/>
@@ -9628,20 +9766,20 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$9="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$9),"",'01 Operation Comparison'!$P$9))</f>
-        <v/>
+        <v>99RP273.2837:1243VCM</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Spent Grain discharge ( RunTime )</v>
+        <v>-- Operation: Massafra - 220 - Spent Grain discharge ( RunTime ) | Bergamo - Spent Grain discharge ( RunTime )</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$10="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$10),"",CONCATENATE('01 Operation Comparison'!$N$10," ( ",'01 Operation Comparison'!$O$10," )")))</f>
-        <v/>
+        <v>220 - Spent Grain discharge ( RunTime )</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>289</v>
@@ -9691,7 +9829,7 @@
     <row r="41" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>CONCATENATE(D41,"N'",F41,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP273.2841:605RUNT'</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
@@ -9701,7 +9839,7 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$10="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$10),"",'01 Operation Comparison'!$P$10))</f>
-        <v/>
+        <v>99RP273.2841:605RUNT</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -14224,8 +14362,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14248,28 +14386,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -14345,13 +14483,13 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
@@ -14395,15 +14533,13 @@
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J4" s="61">
+        <v>29</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="L4" s="62"/>
       <c r="N4" s="11">
         <f>'00 Value Source'!H2</f>
         <v>3</v>
@@ -14446,14 +14582,11 @@
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2">
-        <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
+      <c r="J5" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>312</v>
       </c>
       <c r="N5" s="11">
         <f>'00 Value Source'!H3</f>
@@ -14497,14 +14630,11 @@
       <c r="I6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
+      <c r="J6" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>313</v>
       </c>
       <c r="N6" s="11">
         <f>'00 Value Source'!H4</f>
@@ -14548,14 +14678,11 @@
       <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>3</v>
+      <c r="J7" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>314</v>
       </c>
       <c r="N7" s="11" t="str">
         <f>'00 Value Source'!H5</f>
@@ -14599,14 +14726,11 @@
       <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>3</v>
+      <c r="J8" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>315</v>
       </c>
       <c r="N8" s="11" t="str">
         <f>'00 Value Source'!H6</f>
@@ -14650,14 +14774,11 @@
       <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>3</v>
+      <c r="J9" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>316</v>
       </c>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
@@ -14701,14 +14822,11 @@
       <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>3</v>
+      <c r="J10" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="N10" s="11" t="str">
         <f>'00 Value Source'!H8</f>
@@ -14752,14 +14870,11 @@
       <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>3</v>
+      <c r="J11" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>318</v>
       </c>
       <c r="N11" s="11" t="str">
         <f>'00 Value Source'!H9</f>
@@ -14803,14 +14918,11 @@
       <c r="I12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>3</v>
+      <c r="J12" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>319</v>
       </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
@@ -14854,14 +14966,11 @@
       <c r="I13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>3</v>
+      <c r="J13" s="44">
+        <v>30</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
@@ -14905,14 +15014,11 @@
       <c r="I14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>3</v>
+      <c r="J14" s="44">
+        <v>31</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="N14" s="11" t="str">
         <f>'00 Value Source'!H12</f>
@@ -14956,14 +15062,11 @@
       <c r="I15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>3</v>
+      <c r="J15" s="44">
+        <v>32</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="N15" s="11" t="str">
         <f>'00 Value Source'!H13</f>
@@ -15007,14 +15110,11 @@
       <c r="I16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>3</v>
+      <c r="J16" s="44">
+        <v>34</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="N16" s="11" t="str">
         <f>'00 Value Source'!H14</f>
@@ -15058,14 +15158,11 @@
       <c r="I17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>3</v>
+      <c r="J17" s="44">
+        <v>37</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="N17" s="11" t="str">
         <f>'00 Value Source'!H15</f>
@@ -15109,14 +15206,11 @@
       <c r="I18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>3</v>
+      <c r="J18" s="44">
+        <v>38</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="N18" s="11" t="str">
         <f>'00 Value Source'!H16</f>
@@ -15160,14 +15254,11 @@
       <c r="I19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>3</v>
+      <c r="J19" s="44">
+        <v>39</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="N19" s="11" t="str">
         <f>'00 Value Source'!H17</f>
@@ -15211,14 +15302,11 @@
       <c r="I20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="2">
-        <v>40</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>65</v>
+      <c r="J20" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>331</v>
       </c>
       <c r="N20" s="11">
         <f>'00 Value Source'!H18</f>
@@ -15262,14 +15350,11 @@
       <c r="I21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>3</v>
+      <c r="J21" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>332</v>
       </c>
       <c r="N21" s="11" t="str">
         <f>'00 Value Source'!H19</f>
@@ -15313,14 +15398,11 @@
       <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>3</v>
+      <c r="J22" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>333</v>
       </c>
       <c r="N22" s="11" t="str">
         <f>'00 Value Source'!H20</f>
@@ -15364,14 +15446,11 @@
       <c r="I23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>3</v>
+      <c r="J23" s="44">
+        <v>61</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="N23" s="11" t="str">
         <f>'00 Value Source'!H21</f>
@@ -15403,15 +15482,6 @@
         <f>'00 Value Source'!P22</f>
         <v>NULL</v>
       </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="N24" s="11">
         <f>'00 Value Source'!H22</f>
         <v>2</v>
@@ -15442,15 +15512,6 @@
         <f>'00 Value Source'!P23</f>
         <v>NULL</v>
       </c>
-      <c r="J25" s="2">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="N25" s="11">
         <f>'00 Value Source'!H23</f>
         <v>4</v>
@@ -15481,15 +15542,6 @@
         <f>'00 Value Source'!P24</f>
         <v>NULL</v>
       </c>
-      <c r="J26" s="2">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="N26" s="11">
         <f>'00 Value Source'!H24</f>
         <v>5</v>
@@ -15520,15 +15572,6 @@
         <f>'00 Value Source'!P25</f>
         <v>NULL</v>
       </c>
-      <c r="J27" s="2">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="N27" s="11">
         <f>'00 Value Source'!H25</f>
         <v>7</v>
@@ -15559,15 +15602,6 @@
         <f>'00 Value Source'!P26</f>
         <v>NULL</v>
       </c>
-      <c r="J28" s="2">
-        <v>8</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="N28" s="11">
         <f>'00 Value Source'!H26</f>
         <v>8</v>
@@ -15598,15 +15632,6 @@
         <f>'00 Value Source'!P27</f>
         <v>NULL</v>
       </c>
-      <c r="J29" s="2">
-        <v>9</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="N29" s="11">
         <f>'00 Value Source'!H27</f>
         <v>9</v>
@@ -15637,15 +15662,6 @@
         <f>'00 Value Source'!P28</f>
         <v>NULL</v>
       </c>
-      <c r="J30" s="2">
-        <v>23</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="N30" s="11">
         <f>'00 Value Source'!H28</f>
         <v>23</v>
@@ -15676,15 +15692,6 @@
         <f>'00 Value Source'!P29</f>
         <v>NULL</v>
       </c>
-      <c r="J31" s="2">
-        <v>24</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N31" s="11">
         <f>'00 Value Source'!H29</f>
         <v>24</v>
@@ -15715,15 +15722,6 @@
         <f>'00 Value Source'!P30</f>
         <v>NULL</v>
       </c>
-      <c r="J32" s="2">
-        <v>25</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="N32" s="11">
         <f>'00 Value Source'!H30</f>
         <v>25</v>
@@ -15753,15 +15751,6 @@
       <c r="D33" s="13" t="str">
         <f>'00 Value Source'!P31</f>
         <v>NULL</v>
-      </c>
-      <c r="J33" s="2">
-        <v>41</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="N33" s="11">
         <f>'00 Value Source'!H31</f>
@@ -20587,7 +20576,7 @@
   <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20610,28 +20599,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -26910,8 +26899,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26934,28 +26923,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -27081,14 +27070,11 @@
       <c r="I4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="2">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>155</v>
+      <c r="J4" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>306</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Function Source'!H2</f>
@@ -27132,14 +27118,11 @@
       <c r="I5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="2">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>161</v>
+      <c r="J5" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>307</v>
       </c>
       <c r="N5" s="11">
         <f>'00 Function Source'!H3</f>
@@ -27183,14 +27166,11 @@
       <c r="I6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="2">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>167</v>
+      <c r="J6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="N6" s="11">
         <f>'00 Function Source'!H4</f>
@@ -27234,14 +27214,9 @@
       <c r="I7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>3</v>
+      <c r="J7" s="44"/>
+      <c r="K7" s="46" t="s">
+        <v>172</v>
       </c>
       <c r="N7" s="11" t="str">
         <f>'00 Function Source'!H5</f>
@@ -27273,15 +27248,6 @@
         <f>'00 Function Source'!P6</f>
         <v>NULL</v>
       </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="N8" s="11">
         <f>'00 Function Source'!H6</f>
         <v>3</v>
@@ -27312,15 +27278,6 @@
         <f>'00 Function Source'!P7</f>
         <v>NULL</v>
       </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="N9" s="11">
         <f>'00 Function Source'!H7</f>
         <v>4</v>
@@ -27351,15 +27308,6 @@
         <f>'00 Function Source'!P8</f>
         <v>NULL</v>
       </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="N10" s="11">
         <f>'00 Function Source'!H8</f>
         <v>5</v>
@@ -27390,15 +27338,6 @@
         <f>'00 Function Source'!P9</f>
         <v>NULL</v>
       </c>
-      <c r="J11" s="2">
-        <v>6</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="N11" s="11">
         <f>'00 Function Source'!H9</f>
         <v>6</v>
@@ -27429,15 +27368,6 @@
         <f>'00 Function Source'!P10</f>
         <v>NULL</v>
       </c>
-      <c r="J12" s="2">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="N12" s="11">
         <f>'00 Function Source'!H10</f>
         <v>7</v>
@@ -27468,15 +27398,6 @@
         <f>'00 Function Source'!P11</f>
         <v>NULL</v>
       </c>
-      <c r="J13" s="2">
-        <v>8</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="N13" s="11">
         <f>'00 Function Source'!H11</f>
         <v>8</v>
@@ -27507,15 +27428,6 @@
         <f>'00 Function Source'!P12</f>
         <v>NULL</v>
       </c>
-      <c r="J14" s="2">
-        <v>9</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="N14" s="11">
         <f>'00 Function Source'!H12</f>
         <v>9</v>
@@ -27546,15 +27458,6 @@
         <f>'00 Function Source'!P13</f>
         <v>NULL</v>
       </c>
-      <c r="J15" s="2">
-        <v>10</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="N15" s="11">
         <f>'00 Function Source'!H13</f>
         <v>10</v>
@@ -27585,15 +27488,6 @@
         <f>'00 Function Source'!P14</f>
         <v>NULL</v>
       </c>
-      <c r="J16" s="2">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="N16" s="11">
         <f>'00 Function Source'!H14</f>
         <v>11</v>
@@ -27624,15 +27518,6 @@
         <f>'00 Function Source'!P15</f>
         <v>NULL</v>
       </c>
-      <c r="J17" s="2">
-        <v>13</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="N17" s="11">
         <f>'00 Function Source'!H15</f>
         <v>13</v>
@@ -27663,15 +27548,6 @@
         <f>'00 Function Source'!P16</f>
         <v>NULL</v>
       </c>
-      <c r="J18" s="2">
-        <v>14</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="N18" s="11">
         <f>'00 Function Source'!H16</f>
         <v>14</v>
@@ -27702,15 +27578,6 @@
         <f>'00 Function Source'!P17</f>
         <v>NULL</v>
       </c>
-      <c r="J19" s="2">
-        <v>15</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="N19" s="11">
         <f>'00 Function Source'!H17</f>
         <v>15</v>
@@ -27741,15 +27608,6 @@
         <f>'00 Function Source'!P18</f>
         <v>NULL</v>
       </c>
-      <c r="J20" s="2">
-        <v>16</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="N20" s="11">
         <f>'00 Function Source'!H18</f>
         <v>16</v>
@@ -27780,15 +27638,6 @@
         <f>'00 Function Source'!P19</f>
         <v>NULL</v>
       </c>
-      <c r="J21" s="2">
-        <v>17</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="N21" s="11">
         <f>'00 Function Source'!H19</f>
         <v>17</v>
@@ -27819,15 +27668,6 @@
         <f>'00 Function Source'!P20</f>
         <v>NULL</v>
       </c>
-      <c r="J22" s="2">
-        <v>18</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="N22" s="11">
         <f>'00 Function Source'!H20</f>
         <v>18</v>
@@ -27858,15 +27698,6 @@
         <f>'00 Function Source'!P21</f>
         <v>NULL</v>
       </c>
-      <c r="J23" s="2">
-        <v>19</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="N23" s="11">
         <f>'00 Function Source'!H21</f>
         <v>19</v>
@@ -27897,15 +27728,6 @@
         <f>'00 Function Source'!P22</f>
         <v>NULL</v>
       </c>
-      <c r="J24" s="2">
-        <v>20</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="N24" s="11">
         <f>'00 Function Source'!H22</f>
         <v>20</v>
@@ -27936,15 +27758,6 @@
         <f>'00 Function Source'!P23</f>
         <v>NULL</v>
       </c>
-      <c r="J25" s="2">
-        <v>21</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="N25" s="11">
         <f>'00 Function Source'!H23</f>
         <v>21</v>
@@ -27975,15 +27788,6 @@
         <f>'00 Function Source'!P24</f>
         <v>NULL</v>
       </c>
-      <c r="J26" s="2">
-        <v>22</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="N26" s="11">
         <f>'00 Function Source'!H24</f>
         <v>22</v>
@@ -28014,15 +27818,6 @@
         <f>'00 Function Source'!P25</f>
         <v>NULL</v>
       </c>
-      <c r="J27" s="2">
-        <v>23</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="N27" s="11">
         <f>'00 Function Source'!H25</f>
         <v>23</v>
@@ -28053,15 +27848,6 @@
         <f>'00 Function Source'!P26</f>
         <v>NULL</v>
       </c>
-      <c r="J28" s="2">
-        <v>24</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="N28" s="11">
         <f>'00 Function Source'!H26</f>
         <v>24</v>
@@ -28092,15 +27878,6 @@
         <f>'00 Function Source'!P27</f>
         <v>NULL</v>
       </c>
-      <c r="J29" s="2">
-        <v>25</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="N29" s="11">
         <f>'00 Function Source'!H27</f>
         <v>25</v>
@@ -28131,15 +27908,6 @@
         <f>'00 Function Source'!P28</f>
         <v>NULL</v>
       </c>
-      <c r="J30" s="2">
-        <v>30</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="N30" s="11">
         <f>'00 Function Source'!H28</f>
         <v>30</v>
@@ -28169,15 +27937,6 @@
       <c r="D31" s="13" t="str">
         <f>'00 Function Source'!P29</f>
         <v>NULL</v>
-      </c>
-      <c r="J31" s="2">
-        <v>31</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="N31" s="11">
         <f>'00 Function Source'!H29</f>
@@ -33950,8 +33709,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33966,10 +33725,10 @@
     <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -33978,32 +33737,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="H1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
+      <c r="R1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="60"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -34235,13 +33994,13 @@
         <v>304</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="R5" s="11" t="str">
         <f>'00 Operation Source'!C3</f>
@@ -34300,13 +34059,13 @@
         <v>255</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>252</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="R6" s="11" t="str">
         <f>'00 Operation Source'!C4</f>
@@ -34364,15 +34123,13 @@
       <c r="M7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="N7" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="47"/>
       <c r="R7" s="11" t="str">
         <f>'00 Operation Source'!C5</f>
         <v>2nd Compression</v>
@@ -34430,13 +34187,13 @@
         <v>300</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>3</v>
+        <v>338</v>
       </c>
       <c r="R8" s="11" t="str">
         <f>'00 Operation Source'!C6</f>
@@ -34495,13 +34252,13 @@
         <v>300</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>3</v>
+        <v>284</v>
       </c>
       <c r="R9" s="11" t="str">
         <f>'00 Operation Source'!C7</f>
@@ -34560,13 +34317,13 @@
         <v>275</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>3</v>
+        <v>341</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="R10" s="11" t="str">
         <f>'00 Operation Source'!C8</f>
@@ -39291,8 +39048,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A81" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39321,14 +39078,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -  Buffer tank high hyst | Bergamo - 001: Total sparging amount</v>
+        <v>-- Value: Massafra -  Total sparging amount | Bergamo - 001: Total sparging amount</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v>Buffer tank high hyst</v>
+        <v>Total sparging amount</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>289</v>
@@ -39378,7 +39135,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N'99RP273.536871062SUPPLVA'</v>
+        <v>WHERE _Name = N'99RP273.536873917SUPPLVA'</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -39388,20 +39145,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$3="NULL","",IF(ISBLANK('01 Value Comparison'!$L$3),"",'01 Value Comparison'!$L$3))</f>
-        <v>99RP273.536871062SUPPLVA</v>
+        <v>99RP273.536873917SUPPLVA</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -  Temperature Sparging | Bergamo - 003: Turbidity Avg in Filtration</v>
+        <v>-- Value: Massafra -  029: Turbidity Avg in Filtration | Bergamo - 003: Turbidity Avg in Filtration</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v>Temperature Sparging</v>
+        <v>029: Turbidity Avg in Filtration</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>289</v>
@@ -39451,7 +39208,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP273.536874031SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -39461,20 +39218,20 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$4="NULL","",IF(ISBLANK('01 Value Comparison'!$L$4),"",'01 Value Comparison'!$L$4))</f>
-        <v>99RP273.536874031SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -  Total sparging amount | Bergamo - 13: Gravity mean to Holding Vessel</v>
+        <v>-- Value: Massafra -  026: Gravity mean to Holding Vessel | Bergamo - 13: Gravity mean to Holding Vessel</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v>Total sparging amount</v>
+        <v>026: Gravity mean to Holding Vessel</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>289</v>
@@ -39524,7 +39281,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP273.536873917SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -39534,20 +39291,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$5="NULL","",IF(ISBLANK('01 Value Comparison'!$L$5),"",'01 Value Comparison'!$L$5))</f>
-        <v>99RP273.536873917SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -  Total wort amount | Bergamo - 14: Gravity mean to WWT</v>
+        <v>-- Value: Massafra -  027: Gravity mean to WWT | Bergamo - 14: Gravity mean to WWT</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v>Total wort amount</v>
+        <v>027: Gravity mean to WWT</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>289</v>
@@ -39597,7 +39354,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP273.536873918SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -39607,20 +39364,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$6="NULL","",IF(ISBLANK('01 Value Comparison'!$L$6),"",'01 Value Comparison'!$L$6))</f>
-        <v>99RP273.536873918SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 15: Gravity mean to Drain</v>
+        <v>-- Value: Massafra -  028: Gravity mean to Drain | Bergamo - 15: Gravity mean to Drain</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>028: Gravity mean to Drain</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>289</v>
@@ -39686,14 +39443,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 021: Man Input: Plato main wort</v>
+        <v>-- Value: Massafra -  071: Man Input: Plato main wort | Bergamo - 021: Man Input: Plato main wort</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>071: Man Input: Plato main wort</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>289</v>
@@ -39759,14 +39516,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 022: MES: Mean precompression membrane pressure</v>
+        <v>-- Value: Massafra -  072: MES: Mean precompression membrane pressure | Bergamo - 022: MES: Mean precompression membrane pressure</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>072: MES: Mean precompression membrane pressure</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>289</v>
@@ -39832,14 +39589,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 027: MES: Mean membrane pressure 1st Compression</v>
+        <v>-- Value: Massafra -  077: MES: Mean membrane pressure 1st Compression | Bergamo - 027: MES: Mean membrane pressure 1st Compression</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>077: MES: Mean membrane pressure 1st Compression</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>289</v>
@@ -39905,14 +39662,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 028: MES: Mean membrane pressure 2nd Compression</v>
+        <v>-- Value: Massafra -  078: MES: Mean membrane pressure 2nd Compression | Bergamo - 028: MES: Mean membrane pressure 2nd Compression</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>078: MES: Mean membrane pressure 2nd Compression</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>289</v>
@@ -39978,14 +39735,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 029: Mean inlet T°C in 2nd Sparging</v>
+        <v>-- Value: Massafra -  079: Mean inlet T°C in 2nd Sparging | Bergamo - 029: Mean inlet T°C in 2nd Sparging</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>079: Mean inlet T°C in 2nd Sparging</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>289</v>
@@ -40051,14 +39808,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 030: Mean inlet T°C in 3rd Sparging</v>
+        <v>-- Value: Massafra -  030: Mean inlet T°C in 3rd Sparging | Bergamo - 030: Mean inlet T°C in 3rd Sparging</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>030: Mean inlet T°C in 3rd Sparging</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>289</v>
@@ -40124,14 +39881,14 @@
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Value: Massafra -   | Bergamo - 031: Mean inlet T°C in Last Sparging</v>
+        <v>-- Value: Massafra -  031: Mean inlet T°C in Last Sparging | Bergamo - 031: Mean inlet T°C in Last Sparging</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v/>
+        <v>031: Mean inlet T°C in Last Sparging</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>289</v>
@@ -40197,14 +39954,14 @@
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v>-- Value: Massafra -   | Bergamo - 032: Mean inlet T°C in Filtration</v>
+        <v>-- Value: Massafra -  032: Mean inlet T°C in Filtration | Bergamo - 032: Mean inlet T°C in Filtration</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$15="NULL","",IF(ISBLANK('01 Value Comparison'!$K$15),"",'01 Value Comparison'!$K$15))</f>
-        <v/>
+        <v>032: Mean inlet T°C in Filtration</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>289</v>
@@ -40270,14 +40027,14 @@
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v>-- Value: Massafra -   | Bergamo - 034: MES: Time Main Wort</v>
+        <v>-- Value: Massafra -  034: MES: Time Main Wort | Bergamo - 034: MES: Time Main Wort</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$16="NULL","",IF(ISBLANK('01 Value Comparison'!$K$16),"",'01 Value Comparison'!$K$16))</f>
-        <v/>
+        <v>034: MES: Time Main Wort</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>289</v>
@@ -40343,14 +40100,14 @@
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="str">
         <f>CONCATENATE(B72,C72,D72,E72)</f>
-        <v>-- Value: Massafra -   | Bergamo - 037: MES: Volume Main Wort</v>
+        <v>-- Value: Massafra -  037: MES: Volume Main Wort | Bergamo - 037: MES: Volume Main Wort</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$17="NULL","",IF(ISBLANK('01 Value Comparison'!$K$17),"",'01 Value Comparison'!$K$17))</f>
-        <v/>
+        <v>037: MES: Volume Main Wort</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>289</v>
@@ -40416,14 +40173,14 @@
     <row r="77" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="str">
         <f>CONCATENATE(B77,C77,D77,E77)</f>
-        <v>-- Value: Massafra -   | Bergamo - 038: MES: Time Sparging</v>
+        <v>-- Value: Massafra -  038: MES: Time Sparging | Bergamo - 038: MES: Time Sparging</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C77" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$18="NULL","",IF(ISBLANK('01 Value Comparison'!$K$18),"",'01 Value Comparison'!$K$18))</f>
-        <v/>
+        <v>038: MES: Time Sparging</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>289</v>
@@ -40489,14 +40246,14 @@
     <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="str">
         <f>CONCATENATE(B82,C82,D82,E82)</f>
-        <v>-- Value: Massafra -   | Bergamo - 039: MES: Time Compression</v>
+        <v>-- Value: Massafra -  039: MES: Time Compression | Bergamo - 039: MES: Time Compression</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C82" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$19="NULL","",IF(ISBLANK('01 Value Comparison'!$K$19),"",'01 Value Comparison'!$K$19))</f>
-        <v/>
+        <v>039: MES: Time Compression</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>289</v>
@@ -40562,14 +40319,14 @@
     <row r="87" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="str">
         <f>CONCATENATE(B87,C87,D87,E87)</f>
-        <v>-- Value: Massafra -  Less boil - Initial density | Bergamo - 040: MES: Volume Compression</v>
+        <v>-- Value: Massafra -  050: MES: Volume Compression | Bergamo - 040: MES: Volume Compression</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C87" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$20="NULL","",IF(ISBLANK('01 Value Comparison'!$K$20),"",'01 Value Comparison'!$K$20))</f>
-        <v>Less boil - Initial density</v>
+        <v>050: MES: Volume Compression</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>289</v>
@@ -40619,7 +40376,7 @@
     <row r="91" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="str">
         <f>CONCATENATE(D91,"N'",F91,"'")</f>
-        <v>WHERE _Name = N'99RP273.536874516SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="30"/>
@@ -40629,20 +40386,20 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$20="NULL","",IF(ISBLANK('01 Value Comparison'!$L$20),"",'01 Value Comparison'!$L$20))</f>
-        <v>99RP273.536874516SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="str">
         <f>CONCATENATE(B92,C92,D92,E92)</f>
-        <v>-- Value: Massafra -   | Bergamo - 045: MES: Garadient to HV</v>
+        <v>-- Value: Massafra -  055: MES: Garadient to HV | Bergamo - 045: MES: Garadient to HV</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C92" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$21="NULL","",IF(ISBLANK('01 Value Comparison'!$K$21),"",'01 Value Comparison'!$K$21))</f>
-        <v/>
+        <v>055: MES: Garadient to HV</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>289</v>
@@ -40708,14 +40465,14 @@
     <row r="97" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="str">
         <f>CONCATENATE(B97,C97,D97,E97)</f>
-        <v>-- Value: Massafra -   | Bergamo - 046: MES: Total extract drained at filter</v>
+        <v>-- Value: Massafra -  056: MES: Total extract drained at filter | Bergamo - 046: MES: Total extract drained at filter</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C97" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$22="NULL","",IF(ISBLANK('01 Value Comparison'!$K$22),"",'01 Value Comparison'!$K$22))</f>
-        <v/>
+        <v>056: MES: Total extract drained at filter</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>289</v>
@@ -40781,14 +40538,14 @@
     <row r="102" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="str">
         <f>CONCATENATE(B102,C102,D102,E102)</f>
-        <v>-- Value: Massafra -   | Bergamo - 061: Man. Gravity water end sparging</v>
+        <v>-- Value: Massafra -  061: Man. Gravity water end sparging | Bergamo - 061: Man. Gravity water end sparging</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C102" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$23="NULL","",IF(ISBLANK('01 Value Comparison'!$K$23),"",'01 Value Comparison'!$K$23))</f>
-        <v/>
+        <v>061: Man. Gravity water end sparging</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>289</v>
@@ -40854,14 +40611,14 @@
     <row r="107" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="str">
         <f>CONCATENATE(B107,C107,D107,E107)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Buffer tank low hyst | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B107" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C107" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$24="NULL","",IF(ISBLANK('01 Value Comparison'!$K$24),"",'01 Value Comparison'!$K$24))</f>
-        <v>Buffer tank low hyst</v>
+        <v/>
       </c>
       <c r="D107" s="25" t="s">
         <v>289</v>
@@ -40911,7 +40668,7 @@
     <row r="111" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="41" t="str">
         <f>CONCATENATE(D111,"N'",F111,"'")</f>
-        <v>WHERE _Name = N'99RP273.536871063SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="30"/>
@@ -40921,20 +40678,20 @@
       <c r="E111" s="36"/>
       <c r="F111" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$24="NULL","",IF(ISBLANK('01 Value Comparison'!$L$24),"",'01 Value Comparison'!$L$24))</f>
-        <v>99RP273.536871063SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="38" t="str">
         <f>CONCATENATE(B112,C112,D112,E112)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Batchnumber repair | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B112" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C112" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$25="NULL","",IF(ISBLANK('01 Value Comparison'!$K$25),"",'01 Value Comparison'!$K$25))</f>
-        <v>Batchnumber repair</v>
+        <v/>
       </c>
       <c r="D112" s="25" t="s">
         <v>289</v>
@@ -40984,7 +40741,7 @@
     <row r="116" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="str">
         <f>CONCATENATE(D116,"N'",F116,"'")</f>
-        <v>WHERE _Name = N'99RP273.536874492SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="30"/>
@@ -40994,20 +40751,20 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$25="NULL","",IF(ISBLANK('01 Value Comparison'!$L$25),"",'01 Value Comparison'!$L$25))</f>
-        <v>99RP273.536874492SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="38" t="str">
         <f>CONCATENATE(B117,C117,D117,E117)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Reduced flow limit | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B117" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C117" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$26="NULL","",IF(ISBLANK('01 Value Comparison'!$K$26),"",'01 Value Comparison'!$K$26))</f>
-        <v>Reduced flow limit</v>
+        <v/>
       </c>
       <c r="D117" s="25" t="s">
         <v>289</v>
@@ -41057,7 +40814,7 @@
     <row r="121" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="str">
         <f>CONCATENATE(D121,"N'",F121,"'")</f>
-        <v>WHERE _Name = N'99RP273.536871394SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="30"/>
@@ -41067,20 +40824,20 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$26="NULL","",IF(ISBLANK('01 Value Comparison'!$L$26),"",'01 Value Comparison'!$L$26))</f>
-        <v>99RP273.536871394SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="38" t="str">
         <f>CONCATENATE(B122,C122,D122,E122)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Min pressure opening | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B122" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C122" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$27="NULL","",IF(ISBLANK('01 Value Comparison'!$K$27),"",'01 Value Comparison'!$K$27))</f>
-        <v>Min pressure opening</v>
+        <v/>
       </c>
       <c r="D122" s="25" t="s">
         <v>289</v>
@@ -41130,7 +40887,7 @@
     <row r="126" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="str">
         <f>CONCATENATE(D126,"N'",F126,"'")</f>
-        <v>WHERE _Name = N'99RP273.536871389SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="30"/>
@@ -41140,20 +40897,20 @@
       <c r="E126" s="36"/>
       <c r="F126" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$27="NULL","",IF(ISBLANK('01 Value Comparison'!$L$27),"",'01 Value Comparison'!$L$27))</f>
-        <v>99RP273.536871389SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="str">
         <f>CONCATENATE(B127,C127,D127,E127)</f>
-        <v xml:space="preserve">-- Value: Massafra -  hydraulic press. offset low | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B127" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C127" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$28="NULL","",IF(ISBLANK('01 Value Comparison'!$K$28),"",'01 Value Comparison'!$K$28))</f>
-        <v>hydraulic press. offset low</v>
+        <v/>
       </c>
       <c r="D127" s="25" t="s">
         <v>289</v>
@@ -41203,7 +40960,7 @@
     <row r="131" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="41" t="str">
         <f>CONCATENATE(D131,"N'",F131,"'")</f>
-        <v>WHERE _Name = N'99RP273.536873672SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="30"/>
@@ -41213,20 +40970,20 @@
       <c r="E131" s="36"/>
       <c r="F131" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$28="NULL","",IF(ISBLANK('01 Value Comparison'!$L$28),"",'01 Value Comparison'!$L$28))</f>
-        <v>99RP273.536873672SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="38" t="str">
         <f>CONCATENATE(B132,C132,D132,E132)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Pump after BT speed | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B132" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C132" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$29="NULL","",IF(ISBLANK('01 Value Comparison'!$K$29),"",'01 Value Comparison'!$K$29))</f>
-        <v>Pump after BT speed</v>
+        <v/>
       </c>
       <c r="D132" s="25" t="s">
         <v>289</v>
@@ -41276,7 +41033,7 @@
     <row r="136" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="str">
         <f>CONCATENATE(D136,"N'",F136,"'")</f>
-        <v>WHERE _Name = N'99RP273.536874563SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="30"/>
@@ -41286,20 +41043,20 @@
       <c r="E136" s="36"/>
       <c r="F136" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$29="NULL","",IF(ISBLANK('01 Value Comparison'!$L$29),"",'01 Value Comparison'!$L$29))</f>
-        <v>99RP273.536874563SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="str">
         <f>CONCATENATE(B137,C137,D137,E137)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Act Flow ratio=(Mean init Flow/Act Flow) | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B137" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C137" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$30="NULL","",IF(ISBLANK('01 Value Comparison'!$K$30),"",'01 Value Comparison'!$K$30))</f>
-        <v>Act Flow ratio=(Mean init Flow/Act Flow)</v>
+        <v/>
       </c>
       <c r="D137" s="25" t="s">
         <v>289</v>
@@ -41349,7 +41106,7 @@
     <row r="141" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="str">
         <f>CONCATENATE(D141,"N'",F141,"'")</f>
-        <v>WHERE _Name = N'99RP273.536873982SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="30"/>
@@ -41359,7 +41116,7 @@
       <c r="E141" s="36"/>
       <c r="F141" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$30="NULL","",IF(ISBLANK('01 Value Comparison'!$L$30),"",'01 Value Comparison'!$L$30))</f>
-        <v>99RP273.536873982SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
